--- a/src/test/testdata/driverAccessToken.xlsx
+++ b/src/test/testdata/driverAccessToken.xlsx
@@ -32,13 +32,13 @@
     <t>1021132355</t>
   </si>
   <si>
-    <t>72509</t>
+    <t>72512</t>
   </si>
   <si>
-    <t>355639</t>
+    <t>355642</t>
   </si>
   <si>
-    <t>f15d60cce4ca42989b6e8ab3647a9d00</t>
+    <t>1bd7608e01d449ea92948f39062b93a7</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/driverAccessToken.xlsx
+++ b/src/test/testdata/driverAccessToken.xlsx
@@ -32,13 +32,13 @@
     <t>1021132355</t>
   </si>
   <si>
-    <t>72512</t>
+    <t>72522</t>
   </si>
   <si>
-    <t>355642</t>
+    <t>355647</t>
   </si>
   <si>
-    <t>1bd7608e01d449ea92948f39062b93a7</t>
+    <t>e55834121fd749a58de1c945d8381a28</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/driverAccessToken.xlsx
+++ b/src/test/testdata/driverAccessToken.xlsx
@@ -29,16 +29,16 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>1021132355</t>
+    <t>1117777778</t>
   </si>
   <si>
-    <t>72522</t>
+    <t>92279</t>
   </si>
   <si>
-    <t>355647</t>
+    <t>518420</t>
   </si>
   <si>
-    <t>e55834121fd749a58de1c945d8381a28</t>
+    <t>4912783842ea4b3d93d821b806e8f8f2</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/driverAccessToken.xlsx
+++ b/src/test/testdata/driverAccessToken.xlsx
@@ -29,16 +29,16 @@
     <t>access_token</t>
   </si>
   <si>
-    <t>1117777778</t>
+    <t>1021132355</t>
   </si>
   <si>
-    <t>92279</t>
+    <t>73492</t>
   </si>
   <si>
-    <t>518420</t>
+    <t>356357</t>
   </si>
   <si>
-    <t>4912783842ea4b3d93d821b806e8f8f2</t>
+    <t>b92d23b1b07248778203c78ffa2fbc33</t>
   </si>
 </sst>
 </file>
